--- a/Inventory Master List.xlsx
+++ b/Inventory Master List.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsallim\Desktop\My Projects\AE Server 2016\AE-Lunch-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3092A2-FC23-41E1-B740-0001ECA2CB61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D66BB48-1D38-4EA5-9448-3274F342B6B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12165" activeTab="2" xr2:uid="{4E5B14AF-3B04-45EC-9D8B-9910B7722D25}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12165" activeTab="5" xr2:uid="{4E5B14AF-3B04-45EC-9D8B-9910B7722D25}"/>
   </bookViews>
   <sheets>
     <sheet name="SG-Sales" sheetId="1" r:id="rId1"/>
     <sheet name="SG-CustEd" sheetId="2" r:id="rId2"/>
     <sheet name="SG-Marketing" sheetId="3" r:id="rId3"/>
-    <sheet name="Identifier Pool" sheetId="4" r:id="rId4"/>
-    <sheet name="To Print" sheetId="5" r:id="rId5"/>
-    <sheet name="Random Serial Pool" sheetId="6" r:id="rId6"/>
+    <sheet name="SG-RF" sheetId="7" r:id="rId4"/>
+    <sheet name="Identifier Pool" sheetId="4" r:id="rId5"/>
+    <sheet name="To Print" sheetId="5" r:id="rId6"/>
+    <sheet name="Random Serial Pool" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SG-CustEd'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SG-Marketing'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SG-Sales'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'To Print'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'To Print'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6663" uniqueCount="6398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6794" uniqueCount="6526">
   <si>
     <t>Tag Number</t>
   </si>
@@ -18853,395 +18854,779 @@
     <t>SG-S-0443</t>
   </si>
   <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=LCWI52FWLL</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=CPSTLAN32T</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=GX82FHD7S7</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5SY84TRAWW</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=Q0LVO19ZRV</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ZOPRKTGFZN</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=MWLHVWNQWG</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=KEIWZIGZFK</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=85RRRWZHNA</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=PUH1LUR6K7</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=IGLRZJQ95Y</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=Q42YXHCO8N</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=CHZL3CWB2A</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=7FRHWAKUR1</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ARXBJL8QXL</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=6PTCCLHYGD</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=TSB6994LD1</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=COS4K6ETB4</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=QGWM74SID7</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=UTPLNYZSFK</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=TLUE0DO9EW</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=GSB4INXXNH</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=12I78619H7</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=1YJ3TKCL9J</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=4EZXGG1V9E</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=EGWZ03I7UM</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=VPAPXTR0KV</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ZZFKLQ5DKF</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=NPIUDFFFS0</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=PLWSTEPZG2</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=6K53OXEFKW</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=PLMJ12MOTQ</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=A2R7FETK5M</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=8WDPO0Z14N</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=FKUAJYVKKR</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=858HF3OZBA</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ICCO286Z3E</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=RNPMTE7EL5</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=J44EKBEBL0</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=HQ1TGYJB12</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=KGUWIF4IYI</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=YTRQ25VKNM</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=PB6ALI5POP</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ODFABST17T</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=X54D8GJFV4</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=7O55KL6YJS</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=QUE9AKUKGO</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=80G1N3AQR5</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=OU4RTDPVSK</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=M2OBAWXOUU</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=XGP6YBFA1C</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=HHQ3GNA1TG</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=A44CK893AZ</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=Y2TLCBPJJW</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=9Q7CMQRAHQ</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=0XL67DJOKC</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=VQE945RPTA</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=VCP897NK69</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=HYRE1J4U3A</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=QPMSJ748WE</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=WOLMAMIYHM</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=Y7TNV6AWDM</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=HJNJ8HZY2Z</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=OTT49O2K3S</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=MOLF3R4FP3</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=IAXO9LKWYI</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=LGV8OIIL4N</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=AOSHCBI2H2</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=XGL0BGYRHV</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=V9DZHFWLPS</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=S4MOWL8PFU</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=120DULK77N</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=RS808G2U7U</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=7JG8POT2YC</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ACFANTH445</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5V8MDNG6RV</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=RL4ORRN5U0</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=0V2SSHV4CW</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=9ARZBNRDKT</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=J99K6AO2R7</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=48UOC6VJG2</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=U1NOOE4P4S</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=A90I35JE34</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=A2P818ZK1O</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=FIM4S0RXNQ</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=IIN2L7GYBU</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=09QBLXQHTG</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=UNWKUYF0O5</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=AOG41OF2PT</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=A66S2CZ6A4</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=4OR41MVON9</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=HVUSLWL5AL</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=CTGMRITUNE</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=2BA2B9JJ78</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=GH8TS4T2ND</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=LROZLYFKDY</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=AUQVY5XOQ2</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=R9F5N4T9D5</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=1ZD09680T3</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=XI6P990QXY</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=MNBDYQMVK3</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=TQOVP77D25</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=FN2ZHC4RCG</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=YTPOJUJJL2</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=LXZ2UL5N0F</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=PFIWTK3BB7</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=E06G45ZV3I</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=VJKBHFK8Z8</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=MCJBKWLVEB</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=6T46XJG7N5</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=BBMUNYEX3X</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=NCIYVDZXPA</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=MHDB4BNCAF</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=4IG2WWB3WM</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=TRVQE8YI3T</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=NGPNEQGL1E</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=OTEJY89O0C</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ORSBWOA7CD</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=R0Q4KQ1W86</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=3J9V1XNR9D</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=YOPLHHWX2X</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=N19K7L89UC</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=52QKFG7C1L</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=JZ4KC407M7</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=XJ3NO6REA1</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=8RRWIYYTPQ</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=UZWHPI5YYE</t>
-  </si>
-  <si>
-    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=SKEE14PF9D</t>
+    <t>SG-RF-001</t>
+  </si>
+  <si>
+    <t>SG-RF-002</t>
+  </si>
+  <si>
+    <t>SG-RF-003</t>
+  </si>
+  <si>
+    <t>SG-RF-004</t>
+  </si>
+  <si>
+    <t>SG-RF-005</t>
+  </si>
+  <si>
+    <t>SG-RF-006</t>
+  </si>
+  <si>
+    <t>SG-RF-007</t>
+  </si>
+  <si>
+    <t>SG-RF-008</t>
+  </si>
+  <si>
+    <t>SG-RF-009</t>
+  </si>
+  <si>
+    <t>SG-RF-010</t>
+  </si>
+  <si>
+    <t>SG-RF-011</t>
+  </si>
+  <si>
+    <t>SG-RF-012</t>
+  </si>
+  <si>
+    <t>SG-RF-013</t>
+  </si>
+  <si>
+    <t>SG-RF-014</t>
+  </si>
+  <si>
+    <t>SG-RF-015</t>
+  </si>
+  <si>
+    <t>SG-RF-016</t>
+  </si>
+  <si>
+    <t>SG-RF-017</t>
+  </si>
+  <si>
+    <t>SG-RF-018</t>
+  </si>
+  <si>
+    <t>SG-RF-019</t>
+  </si>
+  <si>
+    <t>SG-RF-020</t>
+  </si>
+  <si>
+    <t>SG-RF-021</t>
+  </si>
+  <si>
+    <t>SG-RF-022</t>
+  </si>
+  <si>
+    <t>SG-RF-023</t>
+  </si>
+  <si>
+    <t>SG-RF-024</t>
+  </si>
+  <si>
+    <t>SG-RF-025</t>
+  </si>
+  <si>
+    <t>SG-RF-026</t>
+  </si>
+  <si>
+    <t>SG-RF-027</t>
+  </si>
+  <si>
+    <t>SG-RF-028</t>
+  </si>
+  <si>
+    <t>SG-RF-029</t>
+  </si>
+  <si>
+    <t>SG-RF-030</t>
+  </si>
+  <si>
+    <t>SG-RF-031</t>
+  </si>
+  <si>
+    <t>SG-RF-032</t>
+  </si>
+  <si>
+    <t>SG-RF-033</t>
+  </si>
+  <si>
+    <t>SG-RF-034</t>
+  </si>
+  <si>
+    <t>SG-RF-035</t>
+  </si>
+  <si>
+    <t>SG-RF-036</t>
+  </si>
+  <si>
+    <t>SG-RF-037</t>
+  </si>
+  <si>
+    <t>SG-RF-038</t>
+  </si>
+  <si>
+    <t>SG-RF-039</t>
+  </si>
+  <si>
+    <t>SG-RF-040</t>
+  </si>
+  <si>
+    <t>SG-RF-041</t>
+  </si>
+  <si>
+    <t>SG-RF-042</t>
+  </si>
+  <si>
+    <t>SG-RF-043</t>
+  </si>
+  <si>
+    <t>SG-RF-044</t>
+  </si>
+  <si>
+    <t>SG-RF-045</t>
+  </si>
+  <si>
+    <t>SG-RF-046</t>
+  </si>
+  <si>
+    <t>SG-RF-047</t>
+  </si>
+  <si>
+    <t>SG-RF-048</t>
+  </si>
+  <si>
+    <t>SG-RF-049</t>
+  </si>
+  <si>
+    <t>SG-RF-050</t>
+  </si>
+  <si>
+    <t>SG-RF-051</t>
+  </si>
+  <si>
+    <t>SG-RF-052</t>
+  </si>
+  <si>
+    <t>SG-RF-053</t>
+  </si>
+  <si>
+    <t>SG-RF-054</t>
+  </si>
+  <si>
+    <t>SG-RF-055</t>
+  </si>
+  <si>
+    <t>SG-RF-056</t>
+  </si>
+  <si>
+    <t>SG-RF-057</t>
+  </si>
+  <si>
+    <t>SG-RF-058</t>
+  </si>
+  <si>
+    <t>SG-RF-059</t>
+  </si>
+  <si>
+    <t>SG-RF-060</t>
+  </si>
+  <si>
+    <t>SG-RF-061</t>
+  </si>
+  <si>
+    <t>SG-RF-062</t>
+  </si>
+  <si>
+    <t>SG-RF-063</t>
+  </si>
+  <si>
+    <t>SG-RF-064</t>
+  </si>
+  <si>
+    <t>SG-RF-065</t>
+  </si>
+  <si>
+    <t>SG-RF-066</t>
+  </si>
+  <si>
+    <t>SG-RF-067</t>
+  </si>
+  <si>
+    <t>SG-RF-068</t>
+  </si>
+  <si>
+    <t>SG-RF-069</t>
+  </si>
+  <si>
+    <t>SG-RF-070</t>
+  </si>
+  <si>
+    <t>SG-RF-071</t>
+  </si>
+  <si>
+    <t>SG-RF-072</t>
+  </si>
+  <si>
+    <t>SG-RF-073</t>
+  </si>
+  <si>
+    <t>SG-RF-074</t>
+  </si>
+  <si>
+    <t>SG-RF-075</t>
+  </si>
+  <si>
+    <t>SG-RF-076</t>
+  </si>
+  <si>
+    <t>SG-RF-077</t>
+  </si>
+  <si>
+    <t>SG-RF-078</t>
+  </si>
+  <si>
+    <t>SG-RF-079</t>
+  </si>
+  <si>
+    <t>SG-RF-080</t>
+  </si>
+  <si>
+    <t>SG-RF-081</t>
+  </si>
+  <si>
+    <t>SG-RF-082</t>
+  </si>
+  <si>
+    <t>SG-RF-083</t>
+  </si>
+  <si>
+    <t>SG-RF-084</t>
+  </si>
+  <si>
+    <t>SG-RF-085</t>
+  </si>
+  <si>
+    <t>SG-RF-086</t>
+  </si>
+  <si>
+    <t>SG-RF-087</t>
+  </si>
+  <si>
+    <t>SG-RF-088</t>
+  </si>
+  <si>
+    <t>SG-RF-089</t>
+  </si>
+  <si>
+    <t>SG-RF-090</t>
+  </si>
+  <si>
+    <t>SG-RF-091</t>
+  </si>
+  <si>
+    <t>SG-RF-092</t>
+  </si>
+  <si>
+    <t>SG-RF-093</t>
+  </si>
+  <si>
+    <t>SG-RF-094</t>
+  </si>
+  <si>
+    <t>SG-RF-095</t>
+  </si>
+  <si>
+    <t>SG-RF-096</t>
+  </si>
+  <si>
+    <t>SG-RF-097</t>
+  </si>
+  <si>
+    <t>SG-RF-098</t>
+  </si>
+  <si>
+    <t>SG-RF-099</t>
+  </si>
+  <si>
+    <t>SG-RF-100</t>
+  </si>
+  <si>
+    <t>SG-RF-101</t>
+  </si>
+  <si>
+    <t>SG-RF-102</t>
+  </si>
+  <si>
+    <t>SG-RF-103</t>
+  </si>
+  <si>
+    <t>SG-RF-104</t>
+  </si>
+  <si>
+    <t>SG-RF-105</t>
+  </si>
+  <si>
+    <t>SG-RF-106</t>
+  </si>
+  <si>
+    <t>SG-RF-107</t>
+  </si>
+  <si>
+    <t>SG-RF-108</t>
+  </si>
+  <si>
+    <t>SG-RF-109</t>
+  </si>
+  <si>
+    <t>SG-RF-110</t>
+  </si>
+  <si>
+    <t>SG-RF-111</t>
+  </si>
+  <si>
+    <t>SG-RF-112</t>
+  </si>
+  <si>
+    <t>SG-RF-113</t>
+  </si>
+  <si>
+    <t>SG-RF-114</t>
+  </si>
+  <si>
+    <t>SG-RF-115</t>
+  </si>
+  <si>
+    <t>SG-RF-116</t>
+  </si>
+  <si>
+    <t>SG-RF-117</t>
+  </si>
+  <si>
+    <t>SG-RF-118</t>
+  </si>
+  <si>
+    <t>SG-RF-119</t>
+  </si>
+  <si>
+    <t>SG-RF-120</t>
+  </si>
+  <si>
+    <t>SG-RF-121</t>
+  </si>
+  <si>
+    <t>SG-RF-122</t>
+  </si>
+  <si>
+    <t>SG-RF-123</t>
+  </si>
+  <si>
+    <t>SG-RF-124</t>
+  </si>
+  <si>
+    <t>SG-RF-125</t>
+  </si>
+  <si>
+    <t>SG-RF-126</t>
+  </si>
+  <si>
+    <t>SG-RF-127</t>
+  </si>
+  <si>
+    <t>SG-RF-128</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=7HZ0L200VR</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=B9I2X2R5UM</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=SYTHVA1FS0</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=31KFK2QJO5</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=B4HWO87QXX</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=Y0N46YR5CB</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5T2FLMWX9J</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=DX8U48ZP7X</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=DK3AGNFW34</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=QTBEI29PLI</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ZMFW839FRP</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=A4S84GSHT7</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=O6Q0KXF8NA</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=XHL80C9O1N</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ZFO2HN1XTG</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=Q5NDFUFUKT</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=V3EP2JWAZA</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=W1AS6OK4OE</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=FQBYZ7YO81</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=IK7GLX162E</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=VXQNZW4YM2</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=9S3MBT1197</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=JSJR4M66LR</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=MM1D3ICRJ3</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=1TA76F5RLC</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=JRPMJIU0S5</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5HRH9O17K5</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=WXT42UCVRU</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=HWFGET2MSC</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=B21LJ7RBBN</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=3MC0Z1HWWC</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=Q75QEAMORN</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ZWRV7GKK2S</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=N1YED9GMMM</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=EVQUX21R1E</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=9MVIYYHJ9H</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=119413VZV2</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=W7KBFESUVB</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=9ENC766EWL</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=8TSUJU0JNR</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ZDKA6W7S43</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=A51SC46BOQ</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=0YXSO2XNCS</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=NIPOJDZSMP</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=3ZW4OG4U3O</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=LP5YMEITDX</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5QE0I4G8LH</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5826LHDCBX</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=UL1QIO24L7</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=QV6B7U2L6O</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=35O3Y1OATM</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=0N22M9G4LH</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=UQS7U2R420</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=2JSEVBJ8AU</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=YJZ3LGC2LE</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=JW2W6E0K0Q</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=U68EB9ASJP</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=MJMJ2ZISJZ</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=NWR2TQT138</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=OGC2DG9BDA</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=SQIXS8694I</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=7HEB291Y2V</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=INWLU3UIAN</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=XUFGFZD870</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=DVDTPC4DAB</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=6EGY5U0034</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=LLBYMSALPL</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=4L0B6ELCUN</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5TBJ6WKG7E</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=8C4DQ2RCMF</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=Y6CQ9JZKMM</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=PUND4U6L2L</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=6426WIDXMC</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=EQ793XK1ZT</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=BWZ52AU56S</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=AALRON3ATN</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=8YJZX3ZH94</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=3N66KE74LW</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=E4277SH2RI</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=H9LZ0SKBAL</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=BU9WX307XN</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=XD51PYFG4D</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=YG0DRNAH1H</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=RQRATO0G6B</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=DA429GLZC2</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=3S9XVPWUW8</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=1B5JPX20SL</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=MQNRN4F821</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=W0ARGX20KR</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=P1DSMUMWF1</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=SDGMZK1FIQ</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=DM1ZV44057</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=TV4E8FURML</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=SL4Z27BDWL</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5MBQ41PTIZ</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=LAY972AWFH</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=2H3LANP9YT</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=KMJ2KSLAJJ</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=APJP1FNQPB</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=4ZQ4H5YD7J</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=0ENQFI4KML</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=2O3QH95HXN</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5H1J1KH5H6</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=PRG94VLBIM</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=4OQ76F589C</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=9J81NGSKOY</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=TBVV7MXNS0</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=FNPXT3LV27</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=DFZGKE6AYB</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=NWY9V6L3E4</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=1IYO33Y6VE</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=O8YD0F9752</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=V5VP8WQXVS</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=N6WCFJ89Y8</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=21ROOZFAUV</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=XH11EHSQRN</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=O1MB8B2Y46</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=P59XPDRM7I</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=TJPD1ZUY4K</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=ZWM9LVIELW</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=C4BUAVDW77</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=Y6ORMHGE3O</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=PP7WFFF4SC</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5ZYQLTUTSA</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=5B2XZYSY27</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=IDCDELS8FE</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=WUW9DKD218</t>
+  </si>
+  <si>
+    <t>http://SG-Inventory:8002/NIInventory/Query?identifier=XQQJ75PVSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19252,6 +19637,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -19283,9 +19674,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -19603,8 +19996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806F270B-10A6-4549-9EFD-EF2914CD431A}">
   <dimension ref="A1:C444"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="G313" sqref="G313"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25943,8 +26336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5E14CD-0103-4D9B-91BF-DB63CEEDCE5F}">
   <dimension ref="A1:C249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28948,8 +29341,1575 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5713E6BF-17CB-4528-A328-E0C93F1BC2AB}">
+  <dimension ref="A1:C129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6270</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>_xlfn.CONCAT("http://SG-Inventory:8002/NIInventory/Query?identifier=",B2)</f>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=7HZ0L200VR</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6271</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C66" si="0">_xlfn.CONCAT("http://SG-Inventory:8002/NIInventory/Query?identifier=",B3)</f>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=B9I2X2R5UM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6272</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=SYTHVA1FS0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6273</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=31KFK2QJO5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6274</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=B4HWO87QXX</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6275</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=Y0N46YR5CB</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6276</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=5T2FLMWX9J</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6277</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=DX8U48ZP7X</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6278</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=DK3AGNFW34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6279</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=QTBEI29PLI</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6280</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=ZMFW839FRP</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>6281</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=A4S84GSHT7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6282</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=O6Q0KXF8NA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6283</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=XHL80C9O1N</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6284</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=ZFO2HN1XTG</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6285</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=Q5NDFUFUKT</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>6286</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=V3EP2JWAZA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6287</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=W1AS6OK4OE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6288</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=FQBYZ7YO81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>6289</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=IK7GLX162E</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>6290</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=VXQNZW4YM2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6291</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=9S3MBT1197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>6292</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=JSJR4M66LR</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>6293</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=MM1D3ICRJ3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>6294</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=1TA76F5RLC</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6295</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=JRPMJIU0S5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>6296</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=5HRH9O17K5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>6297</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=WXT42UCVRU</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>6298</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=HWFGET2MSC</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>6299</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=B21LJ7RBBN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>6300</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=3MC0Z1HWWC</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>6301</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=Q75QEAMORN</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>6302</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=ZWRV7GKK2S</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>6303</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=N1YED9GMMM</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>6304</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=EVQUX21R1E</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>6305</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=9MVIYYHJ9H</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>6306</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=119413VZV2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>6307</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=W7KBFESUVB</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>6308</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=9ENC766EWL</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>6309</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=8TSUJU0JNR</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>6310</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=ZDKA6W7S43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>6311</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=A51SC46BOQ</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>6312</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=0YXSO2XNCS</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>6313</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=NIPOJDZSMP</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>6314</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=3ZW4OG4U3O</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>6315</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=LP5YMEITDX</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>6316</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=5QE0I4G8LH</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>6317</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=5826LHDCBX</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>6318</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=UL1QIO24L7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>6319</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=QV6B7U2L6O</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>6320</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=35O3Y1OATM</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>6321</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=0N22M9G4LH</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>6322</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=UQS7U2R420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>6323</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=2JSEVBJ8AU</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>6324</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=YJZ3LGC2LE</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>6325</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=JW2W6E0K0Q</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>6326</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=U68EB9ASJP</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>6327</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=MJMJ2ZISJZ</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>6328</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=NWR2TQT138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>6329</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=OGC2DG9BDA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>6330</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=SQIXS8694I</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>6331</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=7HEB291Y2V</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>6332</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=INWLU3UIAN</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>6333</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=XUFGFZD870</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>6334</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=DVDTPC4DAB</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f t="shared" ref="C67:C129" si="1">_xlfn.CONCAT("http://SG-Inventory:8002/NIInventory/Query?identifier=",B67)</f>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=6EGY5U0034</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>6336</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=LLBYMSALPL</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>6337</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=4L0B6ELCUN</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>6338</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=5TBJ6WKG7E</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>6339</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=8C4DQ2RCMF</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>6340</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=Y6CQ9JZKMM</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>6341</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=PUND4U6L2L</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>6342</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=6426WIDXMC</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>6343</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=EQ793XK1ZT</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>6344</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=BWZ52AU56S</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>6345</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=AALRON3ATN</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>6346</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=8YJZX3ZH94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>6347</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=3N66KE74LW</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>6348</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=E4277SH2RI</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>6349</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=H9LZ0SKBAL</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>6350</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=BU9WX307XN</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>6351</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=XD51PYFG4D</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>6352</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=YG0DRNAH1H</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>6353</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=RQRATO0G6B</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>6354</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=DA429GLZC2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>6355</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=3S9XVPWUW8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>6356</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=1B5JPX20SL</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>6357</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=MQNRN4F821</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>6358</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=W0ARGX20KR</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>6359</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=P1DSMUMWF1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>6360</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=SDGMZK1FIQ</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>6361</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=DM1ZV44057</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>6362</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=TV4E8FURML</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>6363</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=SL4Z27BDWL</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>6364</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=5MBQ41PTIZ</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>6365</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=LAY972AWFH</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>6366</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=2H3LANP9YT</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>6367</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=KMJ2KSLAJJ</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>6368</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=APJP1FNQPB</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>6369</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=4ZQ4H5YD7J</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>6370</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=0ENQFI4KML</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>6371</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=2O3QH95HXN</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>6372</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=5H1J1KH5H6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>6373</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=PRG94VLBIM</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>6374</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=4OQ76F589C</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>6375</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=9J81NGSKOY</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>6376</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=TBVV7MXNS0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>6377</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=FNPXT3LV27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>6378</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=DFZGKE6AYB</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>6379</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=NWY9V6L3E4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=1IYO33Y6VE</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>6381</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C113" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=O8YD0F9752</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>6382</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=V5VP8WQXVS</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>6383</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=N6WCFJ89Y8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>6384</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=21ROOZFAUV</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>6385</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=XH11EHSQRN</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>6386</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=O1MB8B2Y46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>6387</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=P59XPDRM7I</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>6388</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=TJPD1ZUY4K</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>6389</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=ZWM9LVIELW</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>6390</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=C4BUAVDW77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>6391</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=Y6ORMHGE3O</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>6392</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=PP7WFFF4SC</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>6393</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=5ZYQLTUTSA</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>6394</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=5B2XZYSY27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>6395</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=IDCDELS8FE</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>6396</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=WUW9DKD218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>6397</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>http://SG-Inventory:8002/NIInventory/Query?identifier=XQQJ75PVSO</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE233FE-C206-4815-94D8-B593C97499F8}">
-  <dimension ref="A1:A4229"/>
+  <dimension ref="A129:A4229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A128"/>
@@ -28960,646 +30920,6 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>1045</v>
-      </c>
-    </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1046</v>
@@ -50111,12 +51431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F953C87-456A-4826-BABC-AE0463F5256E}">
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50139,1410 +51459,1410 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6142</v>
+        <v>6270</v>
       </c>
       <c r="B2" t="s">
-        <v>790</v>
+        <v>918</v>
       </c>
       <c r="C2" t="s">
-        <v>6270</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6143</v>
+        <v>6271</v>
       </c>
       <c r="B3" t="s">
-        <v>791</v>
+        <v>919</v>
       </c>
       <c r="C3" t="s">
-        <v>6271</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6144</v>
+        <v>6272</v>
       </c>
       <c r="B4" t="s">
-        <v>792</v>
+        <v>920</v>
       </c>
       <c r="C4" t="s">
-        <v>6272</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6145</v>
+        <v>6273</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>921</v>
       </c>
       <c r="C5" t="s">
-        <v>6273</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6146</v>
+        <v>6274</v>
       </c>
       <c r="B6" t="s">
-        <v>794</v>
+        <v>922</v>
       </c>
       <c r="C6" t="s">
-        <v>6274</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6147</v>
+        <v>6275</v>
       </c>
       <c r="B7" t="s">
-        <v>795</v>
+        <v>923</v>
       </c>
       <c r="C7" t="s">
-        <v>6275</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6148</v>
+        <v>6276</v>
       </c>
       <c r="B8" t="s">
-        <v>796</v>
+        <v>924</v>
       </c>
       <c r="C8" t="s">
-        <v>6276</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6149</v>
+        <v>6277</v>
       </c>
       <c r="B9" t="s">
-        <v>797</v>
+        <v>925</v>
       </c>
       <c r="C9" t="s">
-        <v>6277</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6150</v>
+        <v>6278</v>
       </c>
       <c r="B10" t="s">
-        <v>798</v>
+        <v>926</v>
       </c>
       <c r="C10" t="s">
-        <v>6278</v>
+        <v>6406</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6151</v>
+        <v>6279</v>
       </c>
       <c r="B11" t="s">
-        <v>799</v>
+        <v>927</v>
       </c>
       <c r="C11" t="s">
-        <v>6279</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6152</v>
+        <v>6280</v>
       </c>
       <c r="B12" t="s">
-        <v>800</v>
+        <v>928</v>
       </c>
       <c r="C12" t="s">
-        <v>6280</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6153</v>
+        <v>6281</v>
       </c>
       <c r="B13" t="s">
-        <v>801</v>
+        <v>929</v>
       </c>
       <c r="C13" t="s">
-        <v>6281</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6154</v>
+        <v>6282</v>
       </c>
       <c r="B14" t="s">
-        <v>802</v>
+        <v>930</v>
       </c>
       <c r="C14" t="s">
-        <v>6282</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6155</v>
+        <v>6283</v>
       </c>
       <c r="B15" t="s">
-        <v>803</v>
+        <v>931</v>
       </c>
       <c r="C15" t="s">
-        <v>6283</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6156</v>
+        <v>6284</v>
       </c>
       <c r="B16" t="s">
-        <v>804</v>
+        <v>932</v>
       </c>
       <c r="C16" t="s">
-        <v>6284</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6157</v>
+        <v>6285</v>
       </c>
       <c r="B17" t="s">
-        <v>805</v>
+        <v>933</v>
       </c>
       <c r="C17" t="s">
-        <v>6285</v>
+        <v>6413</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6158</v>
+        <v>6286</v>
       </c>
       <c r="B18" t="s">
-        <v>806</v>
+        <v>934</v>
       </c>
       <c r="C18" t="s">
-        <v>6286</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6159</v>
+        <v>6287</v>
       </c>
       <c r="B19" t="s">
-        <v>807</v>
+        <v>935</v>
       </c>
       <c r="C19" t="s">
-        <v>6287</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6160</v>
+        <v>6288</v>
       </c>
       <c r="B20" t="s">
-        <v>808</v>
+        <v>936</v>
       </c>
       <c r="C20" t="s">
-        <v>6288</v>
+        <v>6416</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6161</v>
+        <v>6289</v>
       </c>
       <c r="B21" t="s">
-        <v>809</v>
+        <v>937</v>
       </c>
       <c r="C21" t="s">
-        <v>6289</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6162</v>
+        <v>6290</v>
       </c>
       <c r="B22" t="s">
-        <v>810</v>
+        <v>938</v>
       </c>
       <c r="C22" t="s">
-        <v>6290</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6163</v>
+        <v>6291</v>
       </c>
       <c r="B23" t="s">
-        <v>811</v>
+        <v>939</v>
       </c>
       <c r="C23" t="s">
-        <v>6291</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6164</v>
+        <v>6292</v>
       </c>
       <c r="B24" t="s">
-        <v>812</v>
+        <v>940</v>
       </c>
       <c r="C24" t="s">
-        <v>6292</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6165</v>
+        <v>6293</v>
       </c>
       <c r="B25" t="s">
-        <v>813</v>
+        <v>941</v>
       </c>
       <c r="C25" t="s">
-        <v>6293</v>
+        <v>6421</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6166</v>
+        <v>6294</v>
       </c>
       <c r="B26" t="s">
-        <v>814</v>
+        <v>942</v>
       </c>
       <c r="C26" t="s">
-        <v>6294</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6167</v>
+        <v>6295</v>
       </c>
       <c r="B27" t="s">
-        <v>815</v>
+        <v>943</v>
       </c>
       <c r="C27" t="s">
-        <v>6295</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6168</v>
+        <v>6296</v>
       </c>
       <c r="B28" t="s">
-        <v>816</v>
+        <v>944</v>
       </c>
       <c r="C28" t="s">
-        <v>6296</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6169</v>
+        <v>6297</v>
       </c>
       <c r="B29" t="s">
-        <v>817</v>
+        <v>945</v>
       </c>
       <c r="C29" t="s">
-        <v>6297</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6170</v>
+        <v>6298</v>
       </c>
       <c r="B30" t="s">
-        <v>818</v>
+        <v>946</v>
       </c>
       <c r="C30" t="s">
-        <v>6298</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6171</v>
+        <v>6299</v>
       </c>
       <c r="B31" t="s">
-        <v>819</v>
+        <v>947</v>
       </c>
       <c r="C31" t="s">
-        <v>6299</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6172</v>
+        <v>6300</v>
       </c>
       <c r="B32" t="s">
-        <v>820</v>
+        <v>948</v>
       </c>
       <c r="C32" t="s">
-        <v>6300</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6173</v>
+        <v>6301</v>
       </c>
       <c r="B33" t="s">
-        <v>821</v>
+        <v>949</v>
       </c>
       <c r="C33" t="s">
-        <v>6301</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6174</v>
+        <v>6302</v>
       </c>
       <c r="B34" t="s">
-        <v>822</v>
+        <v>950</v>
       </c>
       <c r="C34" t="s">
-        <v>6302</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6175</v>
+        <v>6303</v>
       </c>
       <c r="B35" t="s">
-        <v>823</v>
+        <v>951</v>
       </c>
       <c r="C35" t="s">
-        <v>6303</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6176</v>
+        <v>6304</v>
       </c>
       <c r="B36" t="s">
-        <v>824</v>
+        <v>952</v>
       </c>
       <c r="C36" t="s">
-        <v>6304</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6177</v>
+        <v>6305</v>
       </c>
       <c r="B37" t="s">
-        <v>825</v>
+        <v>953</v>
       </c>
       <c r="C37" t="s">
-        <v>6305</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6178</v>
+        <v>6306</v>
       </c>
       <c r="B38" t="s">
-        <v>826</v>
+        <v>954</v>
       </c>
       <c r="C38" t="s">
-        <v>6306</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6179</v>
+        <v>6307</v>
       </c>
       <c r="B39" t="s">
-        <v>827</v>
+        <v>955</v>
       </c>
       <c r="C39" t="s">
-        <v>6307</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6180</v>
+        <v>6308</v>
       </c>
       <c r="B40" t="s">
-        <v>828</v>
+        <v>956</v>
       </c>
       <c r="C40" t="s">
-        <v>6308</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6181</v>
+        <v>6309</v>
       </c>
       <c r="B41" t="s">
-        <v>829</v>
+        <v>957</v>
       </c>
       <c r="C41" t="s">
-        <v>6309</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6182</v>
+        <v>6310</v>
       </c>
       <c r="B42" t="s">
-        <v>830</v>
+        <v>958</v>
       </c>
       <c r="C42" t="s">
-        <v>6310</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6183</v>
+        <v>6311</v>
       </c>
       <c r="B43" t="s">
-        <v>831</v>
+        <v>959</v>
       </c>
       <c r="C43" t="s">
-        <v>6311</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6184</v>
+        <v>6312</v>
       </c>
       <c r="B44" t="s">
-        <v>832</v>
+        <v>960</v>
       </c>
       <c r="C44" t="s">
-        <v>6312</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6185</v>
+        <v>6313</v>
       </c>
       <c r="B45" t="s">
-        <v>833</v>
+        <v>961</v>
       </c>
       <c r="C45" t="s">
-        <v>6313</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6186</v>
+        <v>6314</v>
       </c>
       <c r="B46" t="s">
-        <v>834</v>
+        <v>962</v>
       </c>
       <c r="C46" t="s">
-        <v>6314</v>
+        <v>6442</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6187</v>
+        <v>6315</v>
       </c>
       <c r="B47" t="s">
-        <v>835</v>
+        <v>963</v>
       </c>
       <c r="C47" t="s">
-        <v>6315</v>
+        <v>6443</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6188</v>
+        <v>6316</v>
       </c>
       <c r="B48" t="s">
-        <v>836</v>
+        <v>964</v>
       </c>
       <c r="C48" t="s">
-        <v>6316</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6189</v>
+        <v>6317</v>
       </c>
       <c r="B49" t="s">
-        <v>837</v>
+        <v>965</v>
       </c>
       <c r="C49" t="s">
-        <v>6317</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6190</v>
+        <v>6318</v>
       </c>
       <c r="B50" t="s">
-        <v>838</v>
+        <v>966</v>
       </c>
       <c r="C50" t="s">
-        <v>6318</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6191</v>
+        <v>6319</v>
       </c>
       <c r="B51" t="s">
-        <v>839</v>
+        <v>967</v>
       </c>
       <c r="C51" t="s">
-        <v>6319</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6192</v>
+        <v>6320</v>
       </c>
       <c r="B52" t="s">
-        <v>840</v>
+        <v>968</v>
       </c>
       <c r="C52" t="s">
-        <v>6320</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6193</v>
+        <v>6321</v>
       </c>
       <c r="B53" t="s">
-        <v>841</v>
+        <v>969</v>
       </c>
       <c r="C53" t="s">
-        <v>6321</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6194</v>
+        <v>6322</v>
       </c>
       <c r="B54" t="s">
-        <v>842</v>
+        <v>970</v>
       </c>
       <c r="C54" t="s">
-        <v>6322</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6195</v>
+        <v>6323</v>
       </c>
       <c r="B55" t="s">
-        <v>843</v>
+        <v>971</v>
       </c>
       <c r="C55" t="s">
-        <v>6323</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6196</v>
+        <v>6324</v>
       </c>
       <c r="B56" t="s">
-        <v>844</v>
+        <v>972</v>
       </c>
       <c r="C56" t="s">
-        <v>6324</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6197</v>
+        <v>6325</v>
       </c>
       <c r="B57" t="s">
-        <v>845</v>
+        <v>973</v>
       </c>
       <c r="C57" t="s">
-        <v>6325</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>6198</v>
+        <v>6326</v>
       </c>
       <c r="B58" t="s">
-        <v>846</v>
+        <v>974</v>
       </c>
       <c r="C58" t="s">
-        <v>6326</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6199</v>
+        <v>6327</v>
       </c>
       <c r="B59" t="s">
-        <v>847</v>
+        <v>975</v>
       </c>
       <c r="C59" t="s">
-        <v>6327</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6200</v>
+        <v>6328</v>
       </c>
       <c r="B60" t="s">
-        <v>848</v>
+        <v>976</v>
       </c>
       <c r="C60" t="s">
-        <v>6328</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6201</v>
+        <v>6329</v>
       </c>
       <c r="B61" t="s">
-        <v>849</v>
+        <v>977</v>
       </c>
       <c r="C61" t="s">
-        <v>6329</v>
+        <v>6457</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6202</v>
+        <v>6330</v>
       </c>
       <c r="B62" t="s">
-        <v>850</v>
+        <v>978</v>
       </c>
       <c r="C62" t="s">
-        <v>6330</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6203</v>
+        <v>6331</v>
       </c>
       <c r="B63" t="s">
-        <v>851</v>
+        <v>979</v>
       </c>
       <c r="C63" t="s">
-        <v>6331</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6204</v>
+        <v>6332</v>
       </c>
       <c r="B64" t="s">
-        <v>852</v>
+        <v>980</v>
       </c>
       <c r="C64" t="s">
-        <v>6332</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6205</v>
+        <v>6333</v>
       </c>
       <c r="B65" t="s">
-        <v>853</v>
+        <v>981</v>
       </c>
       <c r="C65" t="s">
-        <v>6333</v>
+        <v>6461</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6206</v>
+        <v>6334</v>
       </c>
       <c r="B66" t="s">
-        <v>854</v>
+        <v>982</v>
       </c>
       <c r="C66" t="s">
-        <v>6334</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6207</v>
+        <v>6335</v>
       </c>
       <c r="B67" t="s">
-        <v>855</v>
+        <v>983</v>
       </c>
       <c r="C67" t="s">
-        <v>6335</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6208</v>
+        <v>6336</v>
       </c>
       <c r="B68" t="s">
-        <v>856</v>
+        <v>984</v>
       </c>
       <c r="C68" t="s">
-        <v>6336</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6209</v>
+        <v>6337</v>
       </c>
       <c r="B69" t="s">
-        <v>857</v>
+        <v>985</v>
       </c>
       <c r="C69" t="s">
-        <v>6337</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6210</v>
+        <v>6338</v>
       </c>
       <c r="B70" t="s">
-        <v>858</v>
+        <v>986</v>
       </c>
       <c r="C70" t="s">
-        <v>6338</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>6211</v>
+        <v>6339</v>
       </c>
       <c r="B71" t="s">
-        <v>859</v>
+        <v>987</v>
       </c>
       <c r="C71" t="s">
-        <v>6339</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>6212</v>
+        <v>6340</v>
       </c>
       <c r="B72" t="s">
-        <v>860</v>
+        <v>988</v>
       </c>
       <c r="C72" t="s">
-        <v>6340</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6213</v>
+        <v>6341</v>
       </c>
       <c r="B73" t="s">
-        <v>861</v>
+        <v>989</v>
       </c>
       <c r="C73" t="s">
-        <v>6341</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6214</v>
+        <v>6342</v>
       </c>
       <c r="B74" t="s">
-        <v>862</v>
+        <v>990</v>
       </c>
       <c r="C74" t="s">
-        <v>6342</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6215</v>
+        <v>6343</v>
       </c>
       <c r="B75" t="s">
-        <v>863</v>
+        <v>991</v>
       </c>
       <c r="C75" t="s">
-        <v>6343</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6216</v>
+        <v>6344</v>
       </c>
       <c r="B76" t="s">
-        <v>864</v>
+        <v>992</v>
       </c>
       <c r="C76" t="s">
-        <v>6344</v>
+        <v>6472</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6217</v>
+        <v>6345</v>
       </c>
       <c r="B77" t="s">
-        <v>865</v>
+        <v>993</v>
       </c>
       <c r="C77" t="s">
-        <v>6345</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6218</v>
+        <v>6346</v>
       </c>
       <c r="B78" t="s">
-        <v>866</v>
+        <v>994</v>
       </c>
       <c r="C78" t="s">
-        <v>6346</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6219</v>
+        <v>6347</v>
       </c>
       <c r="B79" t="s">
-        <v>867</v>
+        <v>995</v>
       </c>
       <c r="C79" t="s">
-        <v>6347</v>
+        <v>6475</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6220</v>
+        <v>6348</v>
       </c>
       <c r="B80" t="s">
-        <v>868</v>
+        <v>996</v>
       </c>
       <c r="C80" t="s">
-        <v>6348</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>6221</v>
+        <v>6349</v>
       </c>
       <c r="B81" t="s">
-        <v>869</v>
+        <v>997</v>
       </c>
       <c r="C81" t="s">
-        <v>6349</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>6222</v>
+        <v>6350</v>
       </c>
       <c r="B82" t="s">
-        <v>870</v>
+        <v>998</v>
       </c>
       <c r="C82" t="s">
-        <v>6350</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>6223</v>
+        <v>6351</v>
       </c>
       <c r="B83" t="s">
-        <v>871</v>
+        <v>999</v>
       </c>
       <c r="C83" t="s">
-        <v>6351</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>6224</v>
+        <v>6352</v>
       </c>
       <c r="B84" t="s">
-        <v>872</v>
+        <v>1000</v>
       </c>
       <c r="C84" t="s">
-        <v>6352</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>6225</v>
+        <v>6353</v>
       </c>
       <c r="B85" t="s">
-        <v>873</v>
+        <v>1001</v>
       </c>
       <c r="C85" t="s">
-        <v>6353</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>6226</v>
+        <v>6354</v>
       </c>
       <c r="B86" t="s">
-        <v>874</v>
+        <v>1002</v>
       </c>
       <c r="C86" t="s">
-        <v>6354</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>6227</v>
+        <v>6355</v>
       </c>
       <c r="B87" t="s">
-        <v>875</v>
+        <v>1003</v>
       </c>
       <c r="C87" t="s">
-        <v>6355</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>6228</v>
+        <v>6356</v>
       </c>
       <c r="B88" t="s">
-        <v>876</v>
+        <v>1004</v>
       </c>
       <c r="C88" t="s">
-        <v>6356</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>6229</v>
+        <v>6357</v>
       </c>
       <c r="B89" t="s">
-        <v>877</v>
+        <v>1005</v>
       </c>
       <c r="C89" t="s">
-        <v>6357</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>6230</v>
+        <v>6358</v>
       </c>
       <c r="B90" t="s">
-        <v>878</v>
+        <v>1006</v>
       </c>
       <c r="C90" t="s">
-        <v>6358</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>6231</v>
+        <v>6359</v>
       </c>
       <c r="B91" t="s">
-        <v>879</v>
+        <v>1007</v>
       </c>
       <c r="C91" t="s">
-        <v>6359</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>6232</v>
+        <v>6360</v>
       </c>
       <c r="B92" t="s">
-        <v>880</v>
+        <v>1008</v>
       </c>
       <c r="C92" t="s">
-        <v>6360</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6233</v>
+        <v>6361</v>
       </c>
       <c r="B93" t="s">
-        <v>881</v>
+        <v>1009</v>
       </c>
       <c r="C93" t="s">
-        <v>6361</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>6234</v>
+        <v>6362</v>
       </c>
       <c r="B94" t="s">
-        <v>882</v>
+        <v>1010</v>
       </c>
       <c r="C94" t="s">
-        <v>6362</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>6235</v>
+        <v>6363</v>
       </c>
       <c r="B95" t="s">
-        <v>883</v>
+        <v>1011</v>
       </c>
       <c r="C95" t="s">
-        <v>6363</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>6236</v>
+        <v>6364</v>
       </c>
       <c r="B96" t="s">
-        <v>884</v>
+        <v>1012</v>
       </c>
       <c r="C96" t="s">
-        <v>6364</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>6237</v>
+        <v>6365</v>
       </c>
       <c r="B97" t="s">
-        <v>885</v>
+        <v>1013</v>
       </c>
       <c r="C97" t="s">
-        <v>6365</v>
+        <v>6493</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>6238</v>
+        <v>6366</v>
       </c>
       <c r="B98" t="s">
-        <v>886</v>
+        <v>1014</v>
       </c>
       <c r="C98" t="s">
-        <v>6366</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>6239</v>
+        <v>6367</v>
       </c>
       <c r="B99" t="s">
-        <v>887</v>
+        <v>1015</v>
       </c>
       <c r="C99" t="s">
-        <v>6367</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>6240</v>
+        <v>6368</v>
       </c>
       <c r="B100" t="s">
-        <v>888</v>
+        <v>1016</v>
       </c>
       <c r="C100" t="s">
-        <v>6368</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>6241</v>
+        <v>6369</v>
       </c>
       <c r="B101" t="s">
-        <v>889</v>
+        <v>1017</v>
       </c>
       <c r="C101" t="s">
-        <v>6369</v>
+        <v>6497</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>6242</v>
+        <v>6370</v>
       </c>
       <c r="B102" t="s">
-        <v>890</v>
+        <v>1018</v>
       </c>
       <c r="C102" t="s">
-        <v>6370</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>6243</v>
+        <v>6371</v>
       </c>
       <c r="B103" t="s">
-        <v>891</v>
+        <v>1019</v>
       </c>
       <c r="C103" t="s">
-        <v>6371</v>
+        <v>6499</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>6244</v>
+        <v>6372</v>
       </c>
       <c r="B104" t="s">
-        <v>892</v>
+        <v>1020</v>
       </c>
       <c r="C104" t="s">
-        <v>6372</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>6245</v>
+        <v>6373</v>
       </c>
       <c r="B105" t="s">
-        <v>893</v>
+        <v>1021</v>
       </c>
       <c r="C105" t="s">
-        <v>6373</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>6246</v>
+        <v>6374</v>
       </c>
       <c r="B106" t="s">
-        <v>894</v>
+        <v>1022</v>
       </c>
       <c r="C106" t="s">
-        <v>6374</v>
+        <v>6502</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>6247</v>
+        <v>6375</v>
       </c>
       <c r="B107" t="s">
-        <v>895</v>
+        <v>1023</v>
       </c>
       <c r="C107" t="s">
-        <v>6375</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>6248</v>
+        <v>6376</v>
       </c>
       <c r="B108" t="s">
-        <v>896</v>
+        <v>1024</v>
       </c>
       <c r="C108" t="s">
-        <v>6376</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>6249</v>
+        <v>6377</v>
       </c>
       <c r="B109" t="s">
-        <v>897</v>
+        <v>1025</v>
       </c>
       <c r="C109" t="s">
-        <v>6377</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>6250</v>
+        <v>6378</v>
       </c>
       <c r="B110" t="s">
-        <v>898</v>
+        <v>1026</v>
       </c>
       <c r="C110" t="s">
-        <v>6378</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>6251</v>
+        <v>6379</v>
       </c>
       <c r="B111" t="s">
-        <v>899</v>
+        <v>1027</v>
       </c>
       <c r="C111" t="s">
-        <v>6379</v>
+        <v>6507</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>6252</v>
+        <v>6380</v>
       </c>
       <c r="B112" t="s">
-        <v>900</v>
+        <v>1028</v>
       </c>
       <c r="C112" t="s">
-        <v>6380</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>6253</v>
+        <v>6381</v>
       </c>
       <c r="B113" t="s">
-        <v>901</v>
+        <v>1029</v>
       </c>
       <c r="C113" t="s">
-        <v>6381</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>6254</v>
+        <v>6382</v>
       </c>
       <c r="B114" t="s">
-        <v>902</v>
+        <v>1030</v>
       </c>
       <c r="C114" t="s">
-        <v>6382</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>6255</v>
+        <v>6383</v>
       </c>
       <c r="B115" t="s">
-        <v>903</v>
+        <v>1031</v>
       </c>
       <c r="C115" t="s">
-        <v>6383</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>6256</v>
+        <v>6384</v>
       </c>
       <c r="B116" t="s">
-        <v>904</v>
+        <v>1032</v>
       </c>
       <c r="C116" t="s">
-        <v>6384</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>6257</v>
+        <v>6385</v>
       </c>
       <c r="B117" t="s">
-        <v>905</v>
+        <v>1033</v>
       </c>
       <c r="C117" t="s">
-        <v>6385</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6258</v>
+        <v>6386</v>
       </c>
       <c r="B118" t="s">
-        <v>906</v>
+        <v>1034</v>
       </c>
       <c r="C118" t="s">
-        <v>6386</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>6259</v>
+        <v>6387</v>
       </c>
       <c r="B119" t="s">
-        <v>907</v>
+        <v>1035</v>
       </c>
       <c r="C119" t="s">
-        <v>6387</v>
+        <v>6515</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6260</v>
+        <v>6388</v>
       </c>
       <c r="B120" t="s">
-        <v>908</v>
+        <v>1036</v>
       </c>
       <c r="C120" t="s">
-        <v>6388</v>
+        <v>6516</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6261</v>
+        <v>6389</v>
       </c>
       <c r="B121" t="s">
-        <v>909</v>
+        <v>1037</v>
       </c>
       <c r="C121" t="s">
-        <v>6389</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>6262</v>
+        <v>6390</v>
       </c>
       <c r="B122" t="s">
-        <v>910</v>
+        <v>1038</v>
       </c>
       <c r="C122" t="s">
-        <v>6390</v>
+        <v>6518</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>6263</v>
+        <v>6391</v>
       </c>
       <c r="B123" t="s">
-        <v>911</v>
+        <v>1039</v>
       </c>
       <c r="C123" t="s">
-        <v>6391</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>6264</v>
+        <v>6392</v>
       </c>
       <c r="B124" t="s">
-        <v>912</v>
+        <v>1040</v>
       </c>
       <c r="C124" t="s">
-        <v>6392</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>6265</v>
+        <v>6393</v>
       </c>
       <c r="B125" t="s">
-        <v>913</v>
+        <v>1041</v>
       </c>
       <c r="C125" t="s">
-        <v>6393</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>6266</v>
+        <v>6394</v>
       </c>
       <c r="B126" t="s">
-        <v>914</v>
+        <v>1042</v>
       </c>
       <c r="C126" t="s">
-        <v>6394</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>6267</v>
+        <v>6395</v>
       </c>
       <c r="B127" t="s">
-        <v>915</v>
+        <v>1043</v>
       </c>
       <c r="C127" t="s">
-        <v>6395</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>6268</v>
+        <v>6396</v>
       </c>
       <c r="B128" t="s">
-        <v>916</v>
+        <v>1044</v>
       </c>
       <c r="C128" t="s">
-        <v>6396</v>
+        <v>6524</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>6269</v>
+        <v>6397</v>
       </c>
       <c r="B129" t="s">
-        <v>917</v>
+        <v>1045</v>
       </c>
       <c r="C129" t="s">
-        <v>6397</v>
+        <v>6525</v>
       </c>
     </row>
   </sheetData>
@@ -51551,7 +52871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15093EDB-1992-40B6-A8CB-3B43DBF3316F}">
   <dimension ref="A1:A496"/>
   <sheetViews>
